--- a/AutoCmdb/demo_files/類型/DEMO_類型.xlsx
+++ b/AutoCmdb/demo_files/類型/DEMO_類型.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -48,24 +48,6 @@
   </si>
   <si>
     <t>延長線</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>手機變壓器</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>椅子</t>
-  </si>
-  <si>
-    <t>IPP</t>
-  </si>
-  <si>
-    <t>IP電話</t>
   </si>
 </sst>
 </file>
@@ -414,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,48 +471,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
